--- a/annotations/financial_annotations.xlsx
+++ b/annotations/financial_annotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuonline.sharepoint.com/sites/Examensarbete799/Delade dokument/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklas/Documents/Projects/Understanding-the-effects-of-noise-in-text-to-SQL/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2220" documentId="8_{5A69358A-81FC-B842-A0F1-809F8A1CE571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F72317-1FF0-4408-961A-8FE0FF95E664}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECAAE6-FAFD-9B44-BFF7-9AD70BD48193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{94C42246-A4CA-1742-A070-0B52C5F86171}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="346">
   <si>
     <t>Question ID</t>
   </si>
@@ -1137,13 +1137,16 @@
   </si>
   <si>
     <t>Changed “age of the client” to “ages of clients”</t>
+  </si>
+  <si>
+    <t>How many accounts who choose issuance after transaction are staying in the east Bohemia region?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1286,21 +1289,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1318,9 +1321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,7 +1361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1464,7 +1467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1606,7 +1609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,21 +1619,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3676A-83FD-4946-87D1-CA8534665859}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="83" customWidth="1"/>
-    <col min="3" max="3" width="89.625" customWidth="1"/>
-    <col min="4" max="4" width="80.125" customWidth="1"/>
-    <col min="5" max="5" width="80.625" customWidth="1"/>
-    <col min="6" max="6" width="71.625" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" customWidth="1"/>
+    <col min="6" max="6" width="71.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51">
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>89</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>345</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1676,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.950000000000003">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>90</v>
       </c>
@@ -1690,7 +1693,7 @@
       <c r="E3" s="1"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>91</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="E4" s="1"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="33.950000000000003">
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>92</v>
       </c>
@@ -1718,7 +1721,7 @@
       <c r="E5" s="1"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="33.950000000000003">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>93</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="68.099999999999994">
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>94</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="108">
+    <row r="8" spans="1:7" ht="108" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36">
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>96</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33.950000000000003">
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>97</v>
       </c>
@@ -1824,7 +1827,7 @@
       <c r="E10" s="1"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="51">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>98</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>99</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="33.950000000000003">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1880,7 +1883,7 @@
       <c r="E13" s="1"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="36">
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>101</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33.950000000000003">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>102</v>
       </c>
@@ -1915,7 +1918,7 @@
       <c r="E15" s="1"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="33.950000000000003">
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>103</v>
       </c>
@@ -1929,7 +1932,7 @@
       <c r="E16" s="1"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="33.950000000000003">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>104</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="E17" s="1"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="33.950000000000003">
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>105</v>
       </c>
@@ -1957,7 +1960,7 @@
       <c r="E18" s="1"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="72">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>106</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="33.950000000000003">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>107</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="E20" s="1"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="33.950000000000003">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>108</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="E21" s="1"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="33.950000000000003">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>109</v>
       </c>
@@ -2022,7 +2025,7 @@
       <c r="E22" s="1"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="33.950000000000003">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>110</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="E23" s="1"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="33.950000000000003">
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>111</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="E24" s="1"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="36">
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>112</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>113</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33.950000000000003">
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>114</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="68.099999999999994">
+    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>115</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="68.099999999999994">
+    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>116</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="33.950000000000003">
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>117</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="33.950000000000003">
+    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>118</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="E31" s="1"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="33.950000000000003">
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>119</v>
       </c>
@@ -2208,7 +2211,7 @@
       <c r="E32" s="1"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="33.950000000000003">
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>120</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="33.950000000000003">
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>121</v>
       </c>
@@ -2243,7 +2246,7 @@
       <c r="E34" s="1"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="33.950000000000003">
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>122</v>
       </c>
@@ -2257,7 +2260,7 @@
       <c r="E35" s="1"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="33.950000000000003">
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>123</v>
       </c>
@@ -2271,7 +2274,7 @@
       <c r="E36" s="1"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="33.950000000000003">
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>124</v>
       </c>
@@ -2285,7 +2288,7 @@
       <c r="E37" s="1"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="51">
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>125</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="51">
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>126</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.100000000000001">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>127</v>
       </c>
@@ -2341,7 +2344,7 @@
       <c r="E40" s="1"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="54">
+    <row r="41" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>128</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="51">
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>129</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="51">
+    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>130</v>
       </c>
@@ -2397,7 +2400,7 @@
       <c r="E43" s="1"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="51">
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>131</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="51">
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>132</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="36">
+    <row r="46" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>133</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="33.950000000000003">
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>134</v>
       </c>
@@ -2474,7 +2477,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="51">
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>135</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="51">
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>136</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="E49" s="1"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="51">
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>137</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="51">
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>138</v>
       </c>
@@ -2530,7 +2533,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="33.950000000000003">
+    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>139</v>
       </c>
@@ -2544,7 +2547,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="33.950000000000003">
+    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>140</v>
       </c>
@@ -2558,7 +2561,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="51">
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>141</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="51">
+    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>142</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="33.950000000000003">
+    <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>143</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="51">
+    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>144</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" ht="51">
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>145</v>
       </c>
@@ -2642,7 +2645,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="51">
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>146</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="E59" s="1"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="33.950000000000003">
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>147</v>
       </c>
@@ -2670,7 +2673,7 @@
       <c r="E60" s="1"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" ht="51">
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>148</v>
       </c>
@@ -2684,7 +2687,7 @@
       <c r="E61" s="1"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="51">
+    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>149</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>150</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33.950000000000003">
+    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>151</v>
       </c>
@@ -2742,7 +2745,7 @@
       <c r="E64" s="1"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" ht="51">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>152</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="33.950000000000003">
+    <row r="66" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>153</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="33.950000000000003">
+    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>154</v>
       </c>
@@ -2798,7 +2801,7 @@
       <c r="E67" s="1"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="36">
+    <row r="68" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>155</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="33.950000000000003">
+    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>156</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="E69" s="1"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" ht="33.950000000000003">
+    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>157</v>
       </c>
@@ -2847,7 +2850,7 @@
       <c r="E70" s="1"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" ht="33.950000000000003">
+    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>158</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="E71" s="1"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" ht="51">
+    <row r="72" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>159</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33.950000000000003">
+    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>160</v>
       </c>
@@ -2896,7 +2899,7 @@
       <c r="E73" s="1"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" ht="33.950000000000003">
+    <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>161</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="E74" s="1"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" ht="36">
+    <row r="75" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>162</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>163</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="36">
+    <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>164</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="36">
+    <row r="78" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>165</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="33.950000000000003">
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>166</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="33.950000000000003">
+    <row r="80" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>167</v>
       </c>
@@ -3026,7 +3029,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="33.950000000000003">
+    <row r="81" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>168</v>
       </c>
@@ -3040,7 +3043,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="102">
+    <row r="82" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>169</v>
       </c>
@@ -3054,7 +3057,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" ht="36">
+    <row r="83" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>170</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="36">
+    <row r="84" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>171</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="33.950000000000003">
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>172</v>
       </c>
@@ -3112,7 +3115,7 @@
       <c r="E85" s="1"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" ht="36">
+    <row r="86" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>173</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="33.950000000000003">
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>174</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="33.950000000000003">
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>175</v>
       </c>
@@ -3168,7 +3171,7 @@
       <c r="E88" s="1"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" ht="51">
+    <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>176</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="51">
+    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>177</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="33.950000000000003">
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>178</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="E91" s="1"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="68.099999999999994">
+    <row r="92" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>179</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68.099999999999994">
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>180</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="51">
+    <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>181</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="68.099999999999994">
+    <row r="95" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>182</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="33.950000000000003">
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>183</v>
       </c>
@@ -3334,7 +3337,7 @@
       <c r="E96" s="1"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="33.950000000000003">
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>184</v>
       </c>
@@ -3348,7 +3351,7 @@
       <c r="E97" s="1"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" ht="33.950000000000003">
+    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>185</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="51">
+    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>186</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33.950000000000003">
+    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>187</v>
       </c>
@@ -3404,7 +3407,7 @@
       <c r="E100" s="1"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="33.950000000000003">
+    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>188</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="68.099999999999994">
+    <row r="102" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>189</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="33.950000000000003">
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>190</v>
       </c>
@@ -3462,7 +3465,7 @@
       <c r="E103" s="1"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="33.950000000000003">
+    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>191</v>
       </c>
@@ -3476,7 +3479,7 @@
       <c r="E104" s="1"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="33.950000000000003">
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>192</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="72">
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>193</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="51">
+    <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>194</v>
       </c>
@@ -3539,33 +3542,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.95">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E110" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$E2=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$E2=0</formula>
+  <conditionalFormatting sqref="E63 E66 E68 D75:E75 E77 D92:E92 D95:E95">
+    <cfRule type="expression" dxfId="5" priority="271">
+      <formula>$C63=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="272">
+      <formula>$C63=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63 E66 E68 D75:E75 E77 D92:E92 D95:E95">
-    <cfRule type="expression" dxfId="3" priority="271">
-      <formula>$C63=0</formula>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" dxfId="3" priority="263">
+      <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="272">
-      <formula>$C63=1</formula>
+    <cfRule type="expression" dxfId="2" priority="264">
+      <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3573,41 +3582,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7" twoDigitTextYear="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="263" id="{00000000-000E-0000-0300-00001D000000}">
-            <xm:f>#REF!=0</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="264" id="{00000000-000E-0000-0300-00001E000000}">
-            <xm:f>#REF!=1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E93</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3621,6 +3595,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101003BC4E4546D386D46BEC61D2DC5C46074" ma:contentTypeVersion="4" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="83417ca8e0c9e3b096d187b921187298">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d690fed-b640-4634-bdb2-6a9ba9c7f8a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7ba5cec89736a223f09fe1f9b9ce663" ns2:_="">
     <xsd:import namespace="9d690fed-b640-4634-bdb2-6a9ba9c7f8a0"/>
@@ -3764,20 +3744,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A132811-4529-4E2D-B9FC-17B2DDD512C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A132811-4529-4E2D-B9FC-17B2DDD512C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3EA055-C987-4CE6-9A0D-ACE0A654BF38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FE69FC-0A15-42DD-882E-3574D73DAB79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FE69FC-0A15-42DD-882E-3574D73DAB79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3EA055-C987-4CE6-9A0D-ACE0A654BF38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9d690fed-b640-4634-bdb2-6a9ba9c7f8a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>